--- a/data/output/results/betting_analysis_20220309.xlsx
+++ b/data/output/results/betting_analysis_20220309.xlsx
@@ -512,7 +512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD15"/>
+  <dimension ref="A1:AF15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,60 +613,70 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>date_run</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>EV_pl1</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>EV_pl2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Std_Dev_pl1</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Std_Dev_pl2</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Sharpe_Ratio_pl1</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Sharpe_Ratio_pl2</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Best_Bet_EV</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Best_Bet</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Best_Bet_Sharpe</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Money_to_Bet</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Prob_Win</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Payout</t>
         </is>
@@ -675,17 +685,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>clay</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Masur D.</t>
+          <t>Taberner C.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>ESP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -694,16 +704,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.09</v>
+        <v>1.38</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ymer E.</t>
+          <t>Kovalik J.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SWE</t>
+          <t>SVK</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -712,72 +722,83 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1.35</v>
+        <v>2.93</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="L2" t="n">
-        <v>-189</v>
+        <v>274</v>
       </c>
       <c r="M2" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4195922728517477</v>
+        <v>0.6263375116013484</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5804077271482523</v>
+        <v>0.3736624883986516</v>
       </c>
       <c r="R2" t="n">
         <v>0.5714285714285714</v>
       </c>
-      <c r="S2" t="n">
-        <v>0.7161323959636482</v>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>2022-03-09</t>
+        </is>
       </c>
       <c r="T2" t="n">
-        <v>0.3639581587983929</v>
+        <v>0.4906832776112092</v>
       </c>
       <c r="U2" t="n">
-        <v>1.524891041870451</v>
+        <v>0.4684935794067011</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6662145328560224</v>
+        <v>0.6676103308625735</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.1927138372298981</v>
+        <v>1.417462514077783</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.9697204268902149</v>
+        <v>-0.7778740058108706</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7161323959636482</v>
-      </c>
-      <c r="Z2" t="inlineStr">
+        <v>-0.3820252142227613</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.4906832776112092</v>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Taberner C.
+Kovalik J.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>pl1</t>
         </is>
       </c>
-      <c r="AA2" t="n">
-        <v>-0.1927138372298981</v>
-      </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
+        <v>-0.7778740058108706</v>
+      </c>
+      <c r="AD2" t="n">
         <v>1</v>
       </c>
-      <c r="AC2" t="n">
-        <v>0.4195922728517477</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>3.09</v>
+      <c r="AE2" t="n">
+        <v>0.6263375116013484</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row r="3">
@@ -788,12 +809,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Galan D.</t>
+          <t>Daniel T.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>COL</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -802,16 +823,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.55</v>
+        <v>1.24</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Popko D.</t>
+          <t>Masur D.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -820,88 +841,99 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2.37</v>
+        <v>3.95</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>16</v>
+        <v>299</v>
       </c>
       <c r="M3" t="n">
-        <v>-15</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5028401176281376</v>
+        <v>0.6156510103161043</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4971598823718624</v>
+        <v>0.3843489896838957</v>
       </c>
       <c r="R3" t="n">
         <v>0.5714285714285714</v>
       </c>
-      <c r="S3" t="n">
-        <v>0.282242299951751</v>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>2022-03-09</t>
+        </is>
       </c>
       <c r="T3" t="n">
-        <v>0.6754288035931761</v>
+        <v>0.3790582631080736</v>
       </c>
       <c r="U3" t="n">
-        <v>0.7749874971835286</v>
+        <v>0.9025274989352836</v>
       </c>
       <c r="V3" t="n">
-        <v>1.184980882790299</v>
+        <v>0.6031868365992914</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.9390573431095046</v>
+        <v>1.921441939167098</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.2823431173159539</v>
+        <v>-1.046013769877862</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6754288035931761</v>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>pl2</t>
-        </is>
-      </c>
-      <c r="AA3" t="n">
-        <v>-0.2823431173159539</v>
-      </c>
-      <c r="AB3" t="n">
+        <v>-0.05593325453867388</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.3790582631080736</v>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Daniel T.
+Masur D.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>pl1</t>
+        </is>
+      </c>
+      <c r="AC3" t="n">
+        <v>-1.046013769877862</v>
+      </c>
+      <c r="AD3" t="n">
         <v>1</v>
       </c>
-      <c r="AC3" t="n">
-        <v>0.4971598823718624</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2.37</v>
+      <c r="AE3" t="n">
+        <v>0.6156510103161043</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1.24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>clay</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dellien H.</t>
+          <t>Munar J.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOL</t>
+          <t>ESP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -910,16 +942,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.28</v>
+        <v>2.01</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Olivo R.</t>
+          <t>Vukic A.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ARG</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -928,7 +960,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>3.48</v>
+        <v>1.78</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -937,79 +969,90 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>326</v>
+        <v>208</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="N4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="O4" t="n">
         <v>0</v>
       </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
       <c r="P4" t="n">
-        <v>0.371423906099202</v>
+        <v>0.5326651345506258</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.628576093900798</v>
+        <v>0.4673348654493742</v>
       </c>
       <c r="R4" t="n">
         <v>0.5714285714285714</v>
       </c>
-      <c r="S4" t="n">
-        <v>-0.1531534940938195</v>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2022-03-09</t>
+        </is>
       </c>
       <c r="T4" t="n">
-        <v>1.816020900675575</v>
+        <v>0.6033220549973836</v>
       </c>
       <c r="U4" t="n">
-        <v>0.6184773879016969</v>
+        <v>0.2991909259492602</v>
       </c>
       <c r="V4" t="n">
-        <v>1.681485398357738</v>
+        <v>1.002853014552705</v>
       </c>
       <c r="W4" t="n">
-        <v>-1.880672627402015</v>
+        <v>0.8880986895043856</v>
       </c>
       <c r="X4" t="n">
-        <v>0.4793505203570571</v>
+        <v>-0.4055209877232148</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.816020900675575</v>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>pl2</t>
-        </is>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.4793505203570571</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>13.25176464438136</v>
+        <v>-0.8003717182010656</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.6033220549973836</v>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Munar J.
+Vukic A.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>pl1</t>
+        </is>
       </c>
       <c r="AC4" t="n">
-        <v>0.628576093900798</v>
+        <v>-0.4055209877232148</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.48</v>
+        <v>1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.5326651345506258</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2.01</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>clay</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gimeno Valero C.</t>
+          <t>Machac T.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>CZE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1018,16 +1061,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Serdarusic N.</t>
+          <t>Marchenko I.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>HRV</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1036,72 +1079,83 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1.69</v>
+        <v>3.84</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-5</v>
+        <v>-13</v>
       </c>
       <c r="L5" t="n">
-        <v>-130</v>
+        <v>192</v>
       </c>
       <c r="M5" t="n">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="N5" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5662198598788165</v>
+        <v>0.5537496519001438</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.4337801401211835</v>
+        <v>0.4462503480998563</v>
       </c>
       <c r="R5" t="n">
         <v>0.5714285714285714</v>
       </c>
-      <c r="S5" t="n">
-        <v>0.7552815656243311</v>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>2022-03-09</t>
+        </is>
       </c>
       <c r="T5" t="n">
-        <v>0.1668685769259838</v>
+        <v>0.2459367167753236</v>
       </c>
       <c r="U5" t="n">
-        <v>1.040750614698424</v>
+        <v>1.159851684803304</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8375564470668271</v>
+        <v>0.621378224846557</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.2447449281108309</v>
+        <v>1.908873906728623</v>
       </c>
       <c r="X5" t="n">
-        <v>-1.006656239142703</v>
+        <v>-1.229626743700834</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.7552815656243311</v>
-      </c>
-      <c r="Z5" t="inlineStr">
+        <v>0.0785026628920274</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.2459367167753236</v>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Machac T.
+Marchenko I.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>pl1</t>
         </is>
       </c>
-      <c r="AA5" t="n">
-        <v>-0.2447449281108309</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
+        <v>-1.229626743700834</v>
+      </c>
+      <c r="AD5" t="n">
         <v>1</v>
       </c>
-      <c r="AC5" t="n">
-        <v>0.5662198598788165</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>2.1</v>
+      <c r="AE5" t="n">
+        <v>0.5537496519001438</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="6">
@@ -1112,12 +1166,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kokkinakis T.</t>
+          <t>Kukushkin M.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1126,198 +1180,220 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.47</v>
+        <v>2.64</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Pospisil V.</t>
+          <t>Nishioka Y.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Right-Handed</t>
+          <t>Left-Handed</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2.61</v>
+        <v>1.46</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>265</v>
+        <v>-260</v>
       </c>
       <c r="M6" t="n">
-        <v>-4</v>
+        <v>8</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5022793866596</v>
+        <v>0.4790214184857281</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4977206133404</v>
+        <v>0.5209785815142719</v>
       </c>
       <c r="R6" t="n">
         <v>0.5714285714285714</v>
       </c>
-      <c r="S6" t="n">
-        <v>0.2406300850492121</v>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>2022-03-09</t>
+        </is>
       </c>
       <c r="T6" t="n">
-        <v>0.7967714141588438</v>
+        <v>0.7436379632880504</v>
       </c>
       <c r="U6" t="n">
-        <v>0.7349923624231084</v>
+        <v>0.2816073105251089</v>
       </c>
       <c r="V6" t="n">
-        <v>1.304986439404294</v>
+        <v>1.31883762188162</v>
       </c>
       <c r="W6" t="n">
-        <v>-1.046772666336755</v>
+        <v>0.7293571696769565</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.1633952502514062</v>
+        <v>-0.2019672720072422</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.7967714141588438</v>
-      </c>
-      <c r="Z6" t="inlineStr">
+        <v>-0.9986776297784354</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.2816073105251089</v>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Kukushkin M.
+Nishioka Y.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>pl2</t>
         </is>
       </c>
-      <c r="AA6" t="n">
-        <v>-0.1633952502514062</v>
-      </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
+        <v>-0.9986776297784354</v>
+      </c>
+      <c r="AD6" t="n">
         <v>1</v>
       </c>
-      <c r="AC6" t="n">
-        <v>0.4977206133404</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>2.61</v>
+      <c r="AE6" t="n">
+        <v>0.5209785815142719</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1.46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>clay</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Niki T.</t>
+          <t>Verdasco F.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>ESP</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Left-Handed</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Li Z.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>CHN</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>Right-Handed</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Harris A.</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>AUS</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Right-Handed</t>
-        </is>
-      </c>
       <c r="I7" t="n">
-        <v>1.07</v>
+        <v>3.85</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>-119</v>
+        <v>210</v>
       </c>
       <c r="M7" t="n">
-        <v>-8</v>
+        <v>13</v>
       </c>
       <c r="N7" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" t="n">
         <v>0</v>
       </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
       <c r="P7" t="n">
-        <v>0.4998422305856429</v>
+        <v>0.7781968321653407</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5001577694143571</v>
+        <v>0.2218031678346593</v>
       </c>
       <c r="R7" t="n">
         <v>0.5714285714285714</v>
       </c>
-      <c r="S7" t="n">
-        <v>2.878775709344589</v>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>2022-03-09</t>
+        </is>
       </c>
       <c r="T7" t="n">
-        <v>0.03532658268771915</v>
+        <v>0.7431609040503633</v>
       </c>
       <c r="U7" t="n">
-        <v>3.379999831735564</v>
+        <v>0.07574536399809761</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5349999733664281</v>
+        <v>0.5151696702141004</v>
       </c>
       <c r="W7" t="n">
-        <v>0.5528922492238733</v>
+        <v>1.599518734132489</v>
       </c>
       <c r="X7" t="n">
-        <v>-1.821819562306249</v>
+        <v>-0.5179635203266926</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.878775709344589</v>
-      </c>
-      <c r="Z7" t="inlineStr">
+        <v>-0.5840848350604672</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.7431609040503633</v>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>Verdasco F.
+Li Z.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>pl1</t>
         </is>
       </c>
-      <c r="AA7" t="n">
-        <v>0.5528922492238733</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>21.00683871535004</v>
-      </c>
       <c r="AC7" t="n">
-        <v>0.4998422305856429</v>
+        <v>-0.5179635203266926</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.76</v>
+        <v>1</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.7781968321653407</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1.24</v>
       </c>
     </row>
     <row r="8">
@@ -1328,12 +1404,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Daniel T.</t>
+          <t>Sousa J.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>PRT</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1342,16 +1418,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.24</v>
+        <v>1.65</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Masur D.</t>
+          <t>Purcell M.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1360,72 +1436,83 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>3.95</v>
+        <v>2.2</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L8" t="n">
-        <v>299</v>
+        <v>387</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6156510103161043</v>
+        <v>0.4649989895962895</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3843489896838957</v>
+        <v>0.5350010104037105</v>
       </c>
       <c r="R8" t="n">
         <v>0.5714285714285714</v>
       </c>
-      <c r="S8" t="n">
-        <v>0.3790582631080736</v>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>2022-03-09</t>
+        </is>
       </c>
       <c r="T8" t="n">
-        <v>0.9025274989352836</v>
+        <v>0.2322473224301671</v>
       </c>
       <c r="U8" t="n">
-        <v>0.6031868365992914</v>
+        <v>0.7120032332918736</v>
       </c>
       <c r="V8" t="n">
-        <v>1.921441939167098</v>
+        <v>0.8229761508935319</v>
       </c>
       <c r="W8" t="n">
-        <v>-1.046013769877862</v>
+        <v>1.097301534524709</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.05593325453867388</v>
+        <v>-0.9450488652987108</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.9025274989352836</v>
-      </c>
-      <c r="Z8" t="inlineStr">
+        <v>-0.2715723594036549</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.7120032332918736</v>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>Sousa J.
+Purcell M.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>pl2</t>
         </is>
       </c>
-      <c r="AA8" t="n">
-        <v>-0.05593325453867388</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AC8" t="n">
+        <v>-0.2715723594036549</v>
+      </c>
+      <c r="AD8" t="n">
         <v>1</v>
       </c>
-      <c r="AC8" t="n">
-        <v>0.3843489896838957</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>3.95</v>
+      <c r="AE8" t="n">
+        <v>0.5350010104037105</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="9">
@@ -1436,12 +1523,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kukushkin M.</t>
+          <t>Kokkinakis T.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1450,101 +1537,112 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2.64</v>
+        <v>1.47</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Nishioka Y.</t>
+          <t>Pospisil V.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Left-Handed</t>
+          <t>Right-Handed</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1.46</v>
+        <v>2.61</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>-5</v>
       </c>
       <c r="L9" t="n">
-        <v>-260</v>
+        <v>265</v>
       </c>
       <c r="M9" t="n">
-        <v>8</v>
+        <v>-4</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.4790214184857281</v>
+        <v>0.5022793866596</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.5209785815142719</v>
+        <v>0.4977206133404</v>
       </c>
       <c r="R9" t="n">
         <v>0.5714285714285714</v>
       </c>
-      <c r="S9" t="n">
-        <v>0.7436379632880504</v>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>2022-03-09</t>
+        </is>
       </c>
       <c r="T9" t="n">
-        <v>0.2816073105251089</v>
+        <v>0.2406300850492121</v>
       </c>
       <c r="U9" t="n">
-        <v>1.31883762188162</v>
+        <v>0.796771414158844</v>
       </c>
       <c r="V9" t="n">
-        <v>0.7293571696769565</v>
+        <v>0.7349923624231084</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.2019672720072422</v>
+        <v>1.304986439404294</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.9986776297784354</v>
+        <v>-1.046772666336755</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.7436379632880504</v>
-      </c>
-      <c r="Z9" t="inlineStr">
+        <v>-0.163395250251406</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.2406300850492121</v>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Kokkinakis T.
+Pospisil V.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>pl1</t>
         </is>
       </c>
-      <c r="AA9" t="n">
-        <v>-0.2019672720072422</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="AC9" t="n">
+        <v>-1.046772666336755</v>
+      </c>
+      <c r="AD9" t="n">
         <v>1</v>
       </c>
-      <c r="AC9" t="n">
-        <v>0.4790214184857281</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>2.64</v>
+      <c r="AE9" t="n">
+        <v>0.5022793866596</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1.47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>clay</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Munar J.</t>
+          <t>Gimeno Valero C.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1558,16 +1656,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2.01</v>
+        <v>2.1</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vukic A.</t>
+          <t>Serdarusic N.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>HRV</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1576,106 +1674,117 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="L10" t="n">
-        <v>208</v>
+        <v>-130</v>
       </c>
       <c r="M10" t="n">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="N10" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5326651345506258</v>
+        <v>0.5662198598788165</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4673348654493742</v>
+        <v>0.4337801401211835</v>
       </c>
       <c r="R10" t="n">
         <v>0.5714285714285714</v>
       </c>
-      <c r="S10" t="n">
-        <v>0.6033220549973836</v>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>2022-03-09</t>
+        </is>
       </c>
       <c r="T10" t="n">
-        <v>0.2991909259492602</v>
+        <v>0.7552815656243311</v>
       </c>
       <c r="U10" t="n">
-        <v>1.002853014552705</v>
+        <v>0.1668685769259836</v>
       </c>
       <c r="V10" t="n">
-        <v>0.8880986895043856</v>
+        <v>1.040750614698424</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.4055209877232148</v>
+        <v>0.8375564470668271</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.8003717182010656</v>
+        <v>-0.2447449281108309</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.6033220549973836</v>
-      </c>
-      <c r="Z10" t="inlineStr">
+        <v>-1.006656239142703</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.7552815656243311</v>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>Gimeno Valero C.
+Serdarusic N.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>pl1</t>
         </is>
       </c>
-      <c r="AA10" t="n">
-        <v>-0.4055209877232148</v>
-      </c>
-      <c r="AB10" t="n">
+      <c r="AC10" t="n">
+        <v>-0.2447449281108309</v>
+      </c>
+      <c r="AD10" t="n">
         <v>1</v>
       </c>
-      <c r="AC10" t="n">
-        <v>0.5326651345506258</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>2.01</v>
+      <c r="AE10" t="n">
+        <v>0.5662198598788165</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>clay</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Arnaboldi A.</t>
+          <t>Galan D.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>COL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Left-Handed</t>
+          <t>Right-Handed</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3.34</v>
+        <v>1.55</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Milojevic N.</t>
+          <t>Popko D.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>SRB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1684,72 +1793,83 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1.3</v>
+        <v>2.37</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>-319</v>
+        <v>16</v>
       </c>
       <c r="M11" t="n">
-        <v>-4</v>
+        <v>-15</v>
       </c>
       <c r="N11" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.3941003696950721</v>
+        <v>0.5028401176281376</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.605899630304928</v>
+        <v>0.4971598823718624</v>
       </c>
       <c r="R11" t="n">
         <v>0.5714285714285714</v>
       </c>
-      <c r="S11" t="n">
-        <v>0.7103956044766127</v>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>2022-03-09</t>
+        </is>
       </c>
       <c r="T11" t="n">
-        <v>0.3935691497013344</v>
+        <v>0.282242299951751</v>
       </c>
       <c r="U11" t="n">
-        <v>1.632113028886711</v>
+        <v>0.6754288035931764</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6352535741175822</v>
+        <v>0.7749874971835286</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.1835684111459805</v>
+        <v>1.184980882790299</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.9703697474743643</v>
+        <v>-0.9390573431095046</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.7103956044766127</v>
-      </c>
-      <c r="Z11" t="inlineStr">
+        <v>-0.2823431173159537</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.282242299951751</v>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>Galan D.
+Popko D.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>pl1</t>
         </is>
       </c>
-      <c r="AA11" t="n">
-        <v>-0.1835684111459805</v>
-      </c>
-      <c r="AB11" t="n">
+      <c r="AC11" t="n">
+        <v>-0.9390573431095046</v>
+      </c>
+      <c r="AD11" t="n">
         <v>1</v>
       </c>
-      <c r="AC11" t="n">
-        <v>0.3941003696950721</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>3.34</v>
+      <c r="AE11" t="n">
+        <v>0.5028401176281376</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row r="12">
@@ -1760,12 +1880,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Taberner C.</t>
+          <t>Niki T.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1774,16 +1894,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1.38</v>
+        <v>6.76</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kovalik J.</t>
+          <t>Harris A.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1792,88 +1912,99 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2.93</v>
+        <v>1.07</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>274</v>
+        <v>-119</v>
       </c>
       <c r="M12" t="n">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0.6263375116013484</v>
+        <v>0.4998422305856429</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.3736624883986516</v>
+        <v>0.5001577694143571</v>
       </c>
       <c r="R12" t="n">
         <v>0.5714285714285714</v>
       </c>
-      <c r="S12" t="n">
-        <v>0.4906832776112092</v>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>2022-03-09</t>
+        </is>
       </c>
       <c r="T12" t="n">
-        <v>0.4684935794067008</v>
+        <v>2.878775709344589</v>
       </c>
       <c r="U12" t="n">
-        <v>0.6676103308625735</v>
+        <v>0.03532658268771915</v>
       </c>
       <c r="V12" t="n">
-        <v>1.417462514077783</v>
+        <v>3.379999831735564</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.7778740058108706</v>
+        <v>0.5349999733664281</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.3820252142227616</v>
+        <v>0.5528922492238733</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.4906832776112092</v>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>pl1</t>
-        </is>
-      </c>
-      <c r="AA12" t="n">
-        <v>-0.7778740058108706</v>
-      </c>
-      <c r="AB12" t="n">
+        <v>-1.821819562306249</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.03532658268771915</v>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>Niki T.
+Harris A.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>pl2</t>
+        </is>
+      </c>
+      <c r="AC12" t="n">
+        <v>-1.821819562306249</v>
+      </c>
+      <c r="AD12" t="n">
         <v>1</v>
       </c>
-      <c r="AC12" t="n">
-        <v>0.6263375116013484</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>1.38</v>
+      <c r="AE12" t="n">
+        <v>0.5001577694143571</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1.07</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>clay</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Verdasco F.</t>
+          <t>Arnaboldi A.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1882,16 +2013,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1.24</v>
+        <v>3.34</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Li Z.</t>
+          <t>Milojevic N.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1900,72 +2031,83 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3.85</v>
+        <v>1.3</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L13" t="n">
-        <v>210</v>
+        <v>-319</v>
       </c>
       <c r="M13" t="n">
-        <v>13</v>
+        <v>-4</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>-8</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0.7781968321653407</v>
+        <v>0.3941003696950721</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2218031678346593</v>
+        <v>0.605899630304928</v>
       </c>
       <c r="R13" t="n">
         <v>0.5714285714285714</v>
       </c>
-      <c r="S13" t="n">
-        <v>0.7431609040503633</v>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>2022-03-09</t>
+        </is>
       </c>
       <c r="T13" t="n">
-        <v>0.07574536399809761</v>
+        <v>0.710395604476613</v>
       </c>
       <c r="U13" t="n">
-        <v>0.5151696702141004</v>
+        <v>0.3935691497013344</v>
       </c>
       <c r="V13" t="n">
-        <v>1.599518734132489</v>
+        <v>1.632113028886711</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.5179635203266926</v>
+        <v>0.6352535741175822</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.5840848350604672</v>
+        <v>-0.1835684111459803</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.7431609040503633</v>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>pl1</t>
-        </is>
-      </c>
-      <c r="AA13" t="n">
-        <v>-0.5179635203266926</v>
-      </c>
-      <c r="AB13" t="n">
+        <v>-0.9703697474743643</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.3935691497013344</v>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>Arnaboldi A.
+Milojevic N.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>pl2</t>
+        </is>
+      </c>
+      <c r="AC13" t="n">
+        <v>-0.9703697474743643</v>
+      </c>
+      <c r="AD13" t="n">
         <v>1</v>
       </c>
-      <c r="AC13" t="n">
-        <v>0.7781968321653407</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>1.24</v>
+      <c r="AE13" t="n">
+        <v>0.605899630304928</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="14">
@@ -1976,12 +2118,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sousa J.</t>
+          <t>Masur D.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1990,16 +2132,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.65</v>
+        <v>3.09</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Purcell M.</t>
+          <t>Ymer E.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>SWE</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2008,16 +2150,16 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2.2</v>
+        <v>1.35</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>387</v>
+        <v>-189</v>
       </c>
       <c r="M14" t="n">
         <v>-1</v>
@@ -2029,67 +2171,78 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0.4649989895962895</v>
+        <v>0.4195922728517477</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.5350010104037105</v>
+        <v>0.5804077271482523</v>
       </c>
       <c r="R14" t="n">
         <v>0.5714285714285714</v>
       </c>
-      <c r="S14" t="n">
-        <v>0.2322473224301671</v>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>2022-03-09</t>
+        </is>
       </c>
       <c r="T14" t="n">
-        <v>0.7120032332918736</v>
+        <v>0.7161323959636482</v>
       </c>
       <c r="U14" t="n">
-        <v>0.8229761508935319</v>
+        <v>0.3639581587983929</v>
       </c>
       <c r="V14" t="n">
-        <v>1.097301534524709</v>
+        <v>1.524891041870451</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.9450488652987108</v>
+        <v>0.6662145328560224</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.2715723594036549</v>
+        <v>-0.1927138372298981</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.7120032332918736</v>
-      </c>
-      <c r="Z14" t="inlineStr">
+        <v>-0.9697204268902149</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.3639581587983929</v>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>Masur D.
+Ymer E.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>pl2</t>
         </is>
       </c>
-      <c r="AA14" t="n">
-        <v>-0.2715723594036549</v>
-      </c>
-      <c r="AB14" t="n">
+      <c r="AC14" t="n">
+        <v>-0.9697204268902149</v>
+      </c>
+      <c r="AD14" t="n">
         <v>1</v>
       </c>
-      <c r="AC14" t="n">
-        <v>0.5350010104037105</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>2.2</v>
+      <c r="AE14" t="n">
+        <v>0.5804077271482523</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1.35</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>clay</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Machac T.</t>
+          <t>Dellien H.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CZE</t>
+          <t>BOL</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2098,16 +2251,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Marchenko I.</t>
+          <t>Olivo R.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>ARG</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2116,72 +2269,83 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>3.84</v>
+        <v>3.48</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>192</v>
+        <v>326</v>
       </c>
       <c r="M15" t="n">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0.5537496519001438</v>
+        <v>0.371423906099202</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4462503480998563</v>
+        <v>0.628576093900798</v>
       </c>
       <c r="R15" t="n">
         <v>0.5714285714285714</v>
       </c>
-      <c r="S15" t="n">
-        <v>0.2459367167753236</v>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>2022-03-09</t>
+        </is>
       </c>
       <c r="T15" t="n">
-        <v>1.159851684803304</v>
+        <v>-0.1531534940938195</v>
       </c>
       <c r="U15" t="n">
-        <v>0.621378224846557</v>
+        <v>1.816020900675575</v>
       </c>
       <c r="V15" t="n">
-        <v>1.908873906728623</v>
+        <v>0.6184773879016969</v>
       </c>
       <c r="W15" t="n">
-        <v>-1.229626743700834</v>
+        <v>1.681485398357738</v>
       </c>
       <c r="X15" t="n">
-        <v>0.07850266289202729</v>
+        <v>-1.880672627402015</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.159851684803304</v>
-      </c>
-      <c r="Z15" t="inlineStr">
+        <v>0.4793505203570571</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1.816020900675575</v>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>Dellien H.
+Olivo R.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>pl2</t>
         </is>
       </c>
-      <c r="AA15" t="n">
-        <v>0.07850266289202729</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>1</v>
-      </c>
       <c r="AC15" t="n">
-        <v>0.4462503480998563</v>
+        <v>0.4793505203570571</v>
       </c>
       <c r="AD15" t="n">
-        <v>3.84</v>
+        <v>1.454823113086633</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.628576093900798</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>3.48</v>
       </c>
     </row>
   </sheetData>
@@ -2213,5002 +2377,5002 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1</v>
+        <v>-7.454823113086634</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1</v>
+        <v>2.492784433541484</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.24</v>
+        <v>6.792784433541485</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.64</v>
+        <v>12.12278443354148</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.64</v>
+        <v>0.005176886913366596</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.95</v>
+        <v>9.362784433541485</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.38</v>
+        <v>17.35278443354149</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.38</v>
+        <v>2.965176886913366</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>142.0062297157662</v>
+        <v>0.3851768869133669</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.64</v>
+        <v>-0.4148231130866333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>46.11614096244715</v>
+        <v>7.532784433541485</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.37</v>
+        <v>7.165176886913367</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.24</v>
+        <v>3.385176886913366</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.24</v>
+        <v>11.68278443354149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.2</v>
+        <v>0.3951768869133667</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1</v>
+        <v>1.095176886913366</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.01</v>
+        <v>11.85278443354149</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.24</v>
+        <v>8.822784433541484</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.95</v>
+        <v>8.722784433541484</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>46.11614096244715</v>
+        <v>13.17278443354149</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-1</v>
+        <v>7.162784433541484</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3.95</v>
+        <v>0.6151768869133669</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2.64</v>
+        <v>0.3151768869133666</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.61</v>
+        <v>7.332784433541485</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-1</v>
+        <v>-4.344823113086634</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-1</v>
+        <v>10.35278443354148</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-1</v>
+        <v>2.495176886913367</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>46.11614096244715</v>
+        <v>-4.084823113086633</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3.34</v>
+        <v>9.272784433541485</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.01</v>
+        <v>6.342784433541484</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.24</v>
+        <v>16.68278443354149</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-1</v>
+        <v>7.022784433541484</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.24</v>
+        <v>12.94278443354149</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-13.25176464438136</v>
+        <v>15.40278443354148</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-1</v>
+        <v>5.745176886913367</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-1</v>
+        <v>13.54278443354148</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-21.00683871535004</v>
+        <v>12.49278443354149</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-1</v>
+        <v>7.552784433541484</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3.95</v>
+        <v>-2.404823113086634</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-1</v>
+        <v>5.325176886913368</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.38</v>
+        <v>8.975176886913369</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3.84</v>
+        <v>4.902784433541484</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-1</v>
+        <v>-2.684823113086633</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2.37</v>
+        <v>0.5351768869133668</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.38</v>
+        <v>4.322784433541485</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.24</v>
+        <v>3.885176886913366</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-1</v>
+        <v>11.07278443354148</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-1</v>
+        <v>5.555176886913366</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-1</v>
+        <v>10.90517688691337</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>142.0062297157662</v>
+        <v>9.932784433541485</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>46.11614096244715</v>
+        <v>3.175176886913367</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-1</v>
+        <v>6.662784433541485</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.24</v>
+        <v>6.292784433541485</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>46.11614096244715</v>
+        <v>6.532784433541484</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>46.11614096244715</v>
+        <v>-0.5248231130866337</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-1</v>
+        <v>0.4951768869133668</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-1</v>
+        <v>12.23278443354148</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-1</v>
+        <v>-2.164823113086634</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-1</v>
+        <v>4.902784433541484</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-1</v>
+        <v>17.45278443354148</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.38</v>
+        <v>7.722784433541484</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-1</v>
+        <v>6.005176886913367</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-1</v>
+        <v>-4.934823113086633</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-1</v>
+        <v>9.132784433541485</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2.61</v>
+        <v>11.28278443354148</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-1</v>
+        <v>-4.084823113086633</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3.95</v>
+        <v>-5.884823113086633</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.61</v>
+        <v>5.765176886913367</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-21.00683871535004</v>
+        <v>11.48278443354148</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-1</v>
+        <v>-0.1872155664585158</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>3.84</v>
+        <v>3.832784433541484</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-1</v>
+        <v>10.59278443354149</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.1</v>
+        <v>5.575176886913368</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>3.09</v>
+        <v>5.555176886913366</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-13.25176464438136</v>
+        <v>10.16278443354149</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-1</v>
+        <v>-2.874823113086634</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1.24</v>
+        <v>2.735176886913367</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>46.11614096244715</v>
+        <v>0.8751768869133667</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-1</v>
+        <v>4.782784433541485</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-1</v>
+        <v>10.47278443354148</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>46.11614096244715</v>
+        <v>6.185176886913367</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-1</v>
+        <v>5.745176886913366</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-1</v>
+        <v>4.722784433541484</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>3.09</v>
+        <v>4.782784433541485</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.37</v>
+        <v>1.175176886913367</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-1</v>
+        <v>8.662784433541484</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-1</v>
+        <v>8.942784433541483</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-1</v>
+        <v>8.18517688691337</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-1</v>
+        <v>4.175176886913367</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-1</v>
+        <v>9.992784433541484</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>3.09</v>
+        <v>2.595176886913366</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.61</v>
+        <v>8.822784433541486</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.2</v>
+        <v>0.2251768869133668</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1.38</v>
+        <v>17.63278443354149</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>3.84</v>
+        <v>-4.304823113086633</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-1</v>
+        <v>2.082784433541485</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-13.25176464438136</v>
+        <v>11.68278443354149</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-1</v>
+        <v>9.812784433541484</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.00683871535004</v>
+        <v>-4.474823113086633</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-1</v>
+        <v>-6.504823113086634</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-1</v>
+        <v>1.152784433541484</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-1</v>
+        <v>8.655176886913369</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>3.95</v>
+        <v>4.292784433541485</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-21.00683871535004</v>
+        <v>12.60278443354149</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-1</v>
+        <v>7.865176886913367</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-1</v>
+        <v>-0.1248231130866333</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-1</v>
+        <v>-3.734823113086633</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2.61</v>
+        <v>3.615176886913367</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-1</v>
+        <v>1.125176886913367</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-21.00683871535004</v>
+        <v>10.70517688691337</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-1</v>
+        <v>3.162784433541485</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.38</v>
+        <v>-0.2848231130866334</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2.01</v>
+        <v>-0.01482311308663298</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2.01</v>
+        <v>11.29278443354148</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-13.25176464438136</v>
+        <v>6.892784433541484</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2.1</v>
+        <v>4.695176886913367</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>3.34</v>
+        <v>9.262784433541484</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>3.95</v>
+        <v>5.415176886913367</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-21.00683871535004</v>
+        <v>12.68278443354148</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>3.95</v>
+        <v>4.422784433541485</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1.38</v>
+        <v>1.692784433541484</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2.01</v>
+        <v>1.912784433541484</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1.24</v>
+        <v>3.422784433541484</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2.01</v>
+        <v>1.125176886913367</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-1</v>
+        <v>1.512784433541484</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2.1</v>
+        <v>4.642784433541484</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1.24</v>
+        <v>5.715176886913366</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2.1</v>
+        <v>1.635176886913366</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2.61</v>
+        <v>-0.7072155664585162</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-1</v>
+        <v>12.29278443354148</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-1</v>
+        <v>3.715176886913366</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>3.34</v>
+        <v>-1.674823113086633</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-21.00683871535004</v>
+        <v>9.142784433541484</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1.24</v>
+        <v>2.032784433541484</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-1</v>
+        <v>6.162784433541484</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-1</v>
+        <v>-1.654823113086633</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1.24</v>
+        <v>10.16278443354148</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2.2</v>
+        <v>5.765176886913367</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>3.09</v>
+        <v>7.995176886913367</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>142.0062297157662</v>
+        <v>4.272784433541485</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1.38</v>
+        <v>12.91278443354149</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-21.00683871535004</v>
+        <v>-2.324823113086633</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2.61</v>
+        <v>6.942784433541485</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2.64</v>
+        <v>-2.854823113086633</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-1</v>
+        <v>1.975176886913366</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-1</v>
+        <v>2.362784433541484</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-1</v>
+        <v>14.10278443354149</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>3.84</v>
+        <v>4.112784433541485</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2.64</v>
+        <v>2.705176886913367</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>2.1</v>
+        <v>0.01517688691336727</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>-1</v>
+        <v>16.99278443354149</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-1</v>
+        <v>0.6751768869133665</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>-1</v>
+        <v>3.335176886913366</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-1</v>
+        <v>10.33278443354149</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-1</v>
+        <v>4.305176886913366</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>3.84</v>
+        <v>7.925176886913365</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-1</v>
+        <v>2.352784433541484</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>-1</v>
+        <v>2.302784433541485</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>3.84</v>
+        <v>7.705176886913368</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1.38</v>
+        <v>4.562784433541484</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-21.00683871535004</v>
+        <v>-7.034823113086634</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>-1</v>
+        <v>11.96278443354148</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>46.11614096244715</v>
+        <v>7.515176886913365</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>2.1</v>
+        <v>12.43278443354149</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>3.09</v>
+        <v>0.1851768869133663</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>142.0062297157662</v>
+        <v>11.20278443354148</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>3.34</v>
+        <v>-2.054823113086633</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>3.34</v>
+        <v>7.782784433541485</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-1</v>
+        <v>2.435176886913366</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-1</v>
+        <v>2.255176886913366</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2.37</v>
+        <v>4.665176886913367</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-1</v>
+        <v>11.41278443354148</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>3.09</v>
+        <v>2.515176886913367</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-1</v>
+        <v>10.52517688691337</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-1</v>
+        <v>-2.064823113086633</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-1</v>
+        <v>0.9751768869133668</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>46.11614096244715</v>
+        <v>9.122784433541485</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-1</v>
+        <v>1.135176886913366</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2.01</v>
+        <v>10.56278443354148</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>3.95</v>
+        <v>-2.304823113086633</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2.64</v>
+        <v>10.79278443354148</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>142.0062297157662</v>
+        <v>2.392784433541484</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-1</v>
+        <v>0.5851768869133667</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2.37</v>
+        <v>1.562784433541484</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>2.37</v>
+        <v>11.06517688691337</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1.38</v>
+        <v>-1.637215566458515</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>-1</v>
+        <v>3.322784433541484</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2.64</v>
+        <v>2.735176886913366</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>-1</v>
+        <v>0.945176886913367</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>46.11614096244715</v>
+        <v>6.802784433541484</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>142.0062297157662</v>
+        <v>-1.244823113086633</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>3.09</v>
+        <v>8.595176886913368</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-1</v>
+        <v>5.465176886913366</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-1</v>
+        <v>13.09278443354149</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>2.1</v>
+        <v>-3.394823113086633</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>-1</v>
+        <v>0.6751768869133674</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-1</v>
+        <v>7.592784433541484</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>2.01</v>
+        <v>9.942784433541483</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>-1</v>
+        <v>3.635176886913367</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>-1</v>
+        <v>-1.194823113086634</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>-21.00683871535004</v>
+        <v>16.31278443354149</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1.24</v>
+        <v>6.132784433541485</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>2.37</v>
+        <v>14.38278443354148</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>-21.00683871535004</v>
+        <v>1.305176886913366</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>142.0062297157662</v>
+        <v>4.915176886913366</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>2.61</v>
+        <v>7.815176886913366</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>-1</v>
+        <v>1.692784433541484</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>3.09</v>
+        <v>15.58278443354148</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>2.01</v>
+        <v>-4.184823113086634</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>3.09</v>
+        <v>12.23278443354148</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>-1</v>
+        <v>11.98278443354148</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>1.24</v>
+        <v>1.095176886913366</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>-21.00683871535004</v>
+        <v>11.76278443354148</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>-1</v>
+        <v>8.262784433541484</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>-1</v>
+        <v>5.005176886913367</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>3.34</v>
+        <v>3.195176886913367</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>1.24</v>
+        <v>-4.044823113086633</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>-1</v>
+        <v>7.205176886913367</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>-1</v>
+        <v>12.23278443354148</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>-1</v>
+        <v>0.05517688691336664</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>-21.00683871535004</v>
+        <v>4.065176886913367</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>2.01</v>
+        <v>0.405176886913367</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>-1</v>
+        <v>3.962784433541484</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>1.24</v>
+        <v>12.26278443354148</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>46.11614096244715</v>
+        <v>-1.097215566458516</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>3.34</v>
+        <v>0.5751768869133669</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>-1</v>
+        <v>-0.9848231130866336</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>-1</v>
+        <v>5.645176886913368</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>-1</v>
+        <v>9.192784433541485</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>142.0062297157662</v>
+        <v>4.702784433541485</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>3.34</v>
+        <v>1.095176886913366</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>-1</v>
+        <v>9.742784433541484</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>2.01</v>
+        <v>6.852784433541484</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>2.2</v>
+        <v>-2.334823113086633</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>3.09</v>
+        <v>13.92278443354148</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>-1</v>
+        <v>9.222784433541484</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>-1</v>
+        <v>-1.934823113086633</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>2.2</v>
+        <v>14.67278443354149</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>-1</v>
+        <v>4.895176886913367</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>2.01</v>
+        <v>8.862784433541485</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>2.64</v>
+        <v>0.7751768869133671</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>-1</v>
+        <v>12.64278443354148</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>2.61</v>
+        <v>-5.894823113086633</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1.24</v>
+        <v>-0.5272155664585156</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>-1</v>
+        <v>3.455176886913366</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>-1</v>
+        <v>11.86278443354148</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>2.64</v>
+        <v>-0.1872155664585158</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>2.37</v>
+        <v>-9.014823113086633</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>-1</v>
+        <v>2.515176886913366</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>1.24</v>
+        <v>-2.744823113086633</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>46.11614096244715</v>
+        <v>6.595176886913367</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>3.34</v>
+        <v>2.935176886913366</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>-1</v>
+        <v>4.152784433541484</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>-1</v>
+        <v>10.11278443354148</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>-1</v>
+        <v>5.482784433541484</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>-21.00683871535004</v>
+        <v>2.332784433541484</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>-1</v>
+        <v>6.802784433541484</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1.38</v>
+        <v>5.605176886913367</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>-1</v>
+        <v>4.515176886913365</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>2.64</v>
+        <v>14.78278443354148</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>-1</v>
+        <v>8.375176886913367</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>3.09</v>
+        <v>-3.044823113086633</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>3.84</v>
+        <v>0.1451768869133667</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>2.01</v>
+        <v>9.732784433541484</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>-1</v>
+        <v>1.175176886913367</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>2.37</v>
+        <v>2.995176886913366</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1.38</v>
+        <v>12.68278443354149</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>-21.00683871535004</v>
+        <v>9.682784433541485</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>-1</v>
+        <v>1.265176886913366</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>142.0062297157662</v>
+        <v>0.3351768869133671</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>-1</v>
+        <v>6.212784433541485</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>-21.00683871535004</v>
+        <v>11.61278443354148</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>-1</v>
+        <v>-1.254823113086633</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>-21.00683871535004</v>
+        <v>7.622784433541483</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>-1</v>
+        <v>5.682784433541484</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>-1</v>
+        <v>3.062784433541484</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>2.01</v>
+        <v>8.602784433541483</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>2.64</v>
+        <v>0.4127844335414839</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>1.24</v>
+        <v>11.36517688691337</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>-1</v>
+        <v>8.262784433541484</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>-1</v>
+        <v>-1.064823113086633</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>142.0062297157662</v>
+        <v>6.245176886913367</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>-1</v>
+        <v>2.565176886913366</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>142.0062297157662</v>
+        <v>4.642784433541484</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>-1</v>
+        <v>9.972784433541484</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>2.61</v>
+        <v>10.37278443354148</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>-1</v>
+        <v>0.06517688691336643</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>-13.25176464438136</v>
+        <v>3.615176886913367</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>2.37</v>
+        <v>-0.1972155664585156</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>3.34</v>
+        <v>2.845176886913366</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>46.11614096244715</v>
+        <v>7.905176886913366</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>-1</v>
+        <v>9.052784433541484</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>46.11614096244715</v>
+        <v>5.522784433541484</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>-1</v>
+        <v>9.142784433541484</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>-13.25176464438136</v>
+        <v>13.22278443354148</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>-1</v>
+        <v>-7.194823113086634</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>-1</v>
+        <v>5.262784433541484</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>2.2</v>
+        <v>5.902784433541484</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>1.24</v>
+        <v>8.825176886913367</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>2.61</v>
+        <v>8.522784433541485</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>1.38</v>
+        <v>3.325176886913367</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>2.2</v>
+        <v>10.64278443354148</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>46.11614096244715</v>
+        <v>7.502784433541484</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>-1</v>
+        <v>6.615176886913367</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>-1</v>
+        <v>7.542784433541485</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>-1</v>
+        <v>4.232784433541484</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>-1</v>
+        <v>-3.617215566458515</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>-1</v>
+        <v>14.52278443354148</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>2.37</v>
+        <v>5.515176886913367</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>1.24</v>
+        <v>6.132784433541485</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>2.2</v>
+        <v>13.14278443354148</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>2.01</v>
+        <v>15.25278443354149</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>-1</v>
+        <v>7.362784433541484</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>-1</v>
+        <v>7.705176886913367</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>2.61</v>
+        <v>1.502784433541484</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>3.84</v>
+        <v>3.115176886913366</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>-1</v>
+        <v>7.335176886913367</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>1.38</v>
+        <v>10.17278443354149</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>142.0062297157662</v>
+        <v>10.92278443354148</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>2.01</v>
+        <v>9.232784433541484</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>142.0062297157662</v>
+        <v>11.15278443354148</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>-1</v>
+        <v>-2.484823113086633</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>-1</v>
+        <v>4.155176886913367</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>-1</v>
+        <v>3.005176886913367</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>1.24</v>
+        <v>0.04517688691336663</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>-1</v>
+        <v>-1.454823113086633</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>-13.25176464438136</v>
+        <v>-2.724823113086633</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>-1</v>
+        <v>4.505176886913367</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>1.24</v>
+        <v>6.962784433541484</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>2.37</v>
+        <v>12.63278443354149</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>-1</v>
+        <v>4.422784433541485</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>-1</v>
+        <v>5.372784433541484</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>-1</v>
+        <v>9.962784433541485</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>2.2</v>
+        <v>8.155176886913369</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>46.11614096244715</v>
+        <v>-2.054823113086633</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>2.2</v>
+        <v>7.782784433541485</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>46.11614096244715</v>
+        <v>-1.004823113086633</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>-1</v>
+        <v>-1.104823113086633</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>2.37</v>
+        <v>3.792784433541484</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>3.09</v>
+        <v>7.022784433541485</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>2.2</v>
+        <v>8.705176886913367</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>142.0062297157662</v>
+        <v>5.645176886913366</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>3.34</v>
+        <v>6.902784433541484</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>1.38</v>
+        <v>19.12278443354148</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>3.84</v>
+        <v>6.145176886913366</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>-1</v>
+        <v>-1.914823113086633</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>1.38</v>
+        <v>6.255176886913367</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>3.95</v>
+        <v>13.86278443354148</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>2.2</v>
+        <v>14.48278443354148</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>3.95</v>
+        <v>-2.604823113086634</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>-1</v>
+        <v>12.52278443354149</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>-1</v>
+        <v>6.435176886913367</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>2.01</v>
+        <v>8.292784433541485</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>-1</v>
+        <v>5.765176886913367</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>-1</v>
+        <v>3.245176886913367</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>2.37</v>
+        <v>3.385176886913366</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>2.37</v>
+        <v>4.462784433541485</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>3.84</v>
+        <v>5.042784433541485</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>2.2</v>
+        <v>0.9251768869133665</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>1.24</v>
+        <v>1.145176886913366</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>-1</v>
+        <v>6.672784433541485</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>2.1</v>
+        <v>10.17278443354148</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>1.24</v>
+        <v>-0.9948231130866334</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>3.95</v>
+        <v>12.36278443354148</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>1.24</v>
+        <v>13.39278443354149</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>-1</v>
+        <v>-1.584823113086634</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>-13.25176464438136</v>
+        <v>8.232784433541486</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>-1</v>
+        <v>6.382784433541485</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>-1</v>
+        <v>12.40278443354148</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>3.84</v>
+        <v>0.03517688691336684</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>2.01</v>
+        <v>-2.144823113086634</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>-1</v>
+        <v>0.1051768869133671</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>-1</v>
+        <v>2.715176886913366</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>-1</v>
+        <v>-4.414823113086634</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>3.34</v>
+        <v>5.915176886913366</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>-1</v>
+        <v>14.89278443354148</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>-21.00683871535004</v>
+        <v>5.435176886913367</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>46.11614096244715</v>
+        <v>8.532784433541485</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>142.0062297157662</v>
+        <v>2.445176886913367</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>-1</v>
+        <v>3.652784433541485</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>2.61</v>
+        <v>4.172784433541485</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>-1</v>
+        <v>7.052784433541484</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>3.09</v>
+        <v>-4.304823113086633</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>2.37</v>
+        <v>3.115176886913367</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>2.37</v>
+        <v>-4.554823113086633</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>-1</v>
+        <v>7.202784433541484</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>-1</v>
+        <v>-6.944823113086633</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>-21.00683871535004</v>
+        <v>-4.314823113086633</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>142.0062297157662</v>
+        <v>5.005176886913367</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>-1</v>
+        <v>-3.164823113086633</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>-1</v>
+        <v>1.885176886913366</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>142.0062297157662</v>
+        <v>-6.174823113086633</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>2.64</v>
+        <v>7.022784433541484</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>46.11614096244715</v>
+        <v>9.192784433541485</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>-1</v>
+        <v>9.472784433541484</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>46.11614096244715</v>
+        <v>17.16278443354149</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>-1</v>
+        <v>-5.697215566458516</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>-1</v>
+        <v>-1.664823113086633</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>2.2</v>
+        <v>8.815176886913369</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>-1</v>
+        <v>8.385176886913369</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>-1</v>
+        <v>10.84278443354149</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>2.2</v>
+        <v>2.022784433541485</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>2.1</v>
+        <v>1.105176886913367</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>46.11614096244715</v>
+        <v>11.88278443354148</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>1.24</v>
+        <v>8.832784433541484</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>-1</v>
+        <v>3.742784433541484</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>1.38</v>
+        <v>10.10278443354149</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>-1</v>
+        <v>6.562784433541484</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>2.1</v>
+        <v>-2.964823113086633</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>-1</v>
+        <v>9.992784433541484</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>2.01</v>
+        <v>-0.4448231130866336</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>1.24</v>
+        <v>1.615176886913366</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>1.38</v>
+        <v>8.812784433541484</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>-1</v>
+        <v>-1.464823113086633</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>-1</v>
+        <v>0.1851768869133668</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>2.37</v>
+        <v>6.972784433541484</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>2.64</v>
+        <v>2.485176886913367</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>3.34</v>
+        <v>7.812784433541484</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>3.34</v>
+        <v>3.445176886913367</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>-1</v>
+        <v>2.835176886913366</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>1.24</v>
+        <v>8.192784433541485</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>-1</v>
+        <v>-5.124823113086634</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>142.0062297157662</v>
+        <v>6.952784433541484</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>1.24</v>
+        <v>-0.7072155664585162</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>1.24</v>
+        <v>8.205176886913367</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>-21.00683871535004</v>
+        <v>-0.7672155664585159</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>-1</v>
+        <v>8.712784433541483</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>-1</v>
+        <v>8.585176886913368</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>1.38</v>
+        <v>2.122784433541484</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>-1</v>
+        <v>6.112784433541484</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>-1</v>
+        <v>8.155176886913369</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>142.0062297157662</v>
+        <v>9.175176886913368</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>-1</v>
+        <v>9.092784433541485</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>-21.00683871535004</v>
+        <v>10.99517688691337</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>3.09</v>
+        <v>6.882784433541485</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>-1</v>
+        <v>2.442784433541484</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>2.01</v>
+        <v>-6.414823113086634</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>1.38</v>
+        <v>9.042784433541485</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>3.34</v>
+        <v>8.475176886913367</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>2.1</v>
+        <v>11.49278443354148</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>46.11614096244715</v>
+        <v>15.30278443354148</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>3.84</v>
+        <v>-6.724823113086633</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>-1</v>
+        <v>-5.034823113086634</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>2.1</v>
+        <v>0.2651768869133664</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>2.61</v>
+        <v>3.755176886913367</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>-1</v>
+        <v>8.862784433541485</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>1.38</v>
+        <v>7.122784433541485</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>2.1</v>
+        <v>3.245176886913367</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>2.01</v>
+        <v>2.605176886913367</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>46.11614096244715</v>
+        <v>5.385176886913366</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>2.37</v>
+        <v>6.682784433541484</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>2.37</v>
+        <v>10.15278443354148</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>1.38</v>
+        <v>5.162784433541485</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>3.95</v>
+        <v>3.072784433541485</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>46.11614096244715</v>
+        <v>10.52517688691337</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>142.0062297157662</v>
+        <v>1.045176886913367</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>-1</v>
+        <v>7.065176886913366</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>1.24</v>
+        <v>1.135176886913366</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>2.37</v>
+        <v>3.885176886913366</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>46.11614096244715</v>
+        <v>14.56278443354149</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>2.01</v>
+        <v>10.11517688691337</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>2.01</v>
+        <v>5.665176886913366</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>-13.25176464438136</v>
+        <v>-1.247215566458515</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>3.95</v>
+        <v>5.685176886913367</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>-21.00683871535004</v>
+        <v>2.322784433541484</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>-1</v>
+        <v>8.092784433541485</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>-1</v>
+        <v>11.49278443354148</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>-1</v>
+        <v>12.91278443354148</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>1.38</v>
+        <v>7.092784433541484</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>-1</v>
+        <v>12.26278443354148</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>-13.25176464438136</v>
+        <v>-2.314823113086633</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>-1</v>
+        <v>10.43517688691337</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>-1</v>
+        <v>11.81278443354148</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>-1</v>
+        <v>1.242784433541484</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>142.0062297157662</v>
+        <v>3.305176886913367</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>3.95</v>
+        <v>7.932784433541485</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>-1</v>
+        <v>2.025176886913366</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>-1</v>
+        <v>6.955176886913367</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>-1</v>
+        <v>7.895176886913366</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>-1</v>
+        <v>5.092784433541484</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>1.24</v>
+        <v>13.48278443354148</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>-1</v>
+        <v>1.802784433541484</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>3.34</v>
+        <v>3.355176886913367</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>-13.25176464438136</v>
+        <v>4.512784433541484</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>46.11614096244715</v>
+        <v>7.432784433541484</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>3.84</v>
+        <v>1.015176886913366</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>46.11614096244715</v>
+        <v>9.942784433541485</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>-1</v>
+        <v>-9.914823113086634</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>-1</v>
+        <v>11.09278443354149</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>-1</v>
+        <v>-0.8948231130866329</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>-1</v>
+        <v>-6.574823113086634</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>1.24</v>
+        <v>-2.894823113086633</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>3.95</v>
+        <v>12.06278443354148</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>-1</v>
+        <v>2.422784433541485</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>2.61</v>
+        <v>4.535176886913367</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>-1</v>
+        <v>6.102784433541484</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>-1</v>
+        <v>2.485176886913367</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>3.84</v>
+        <v>-9.104823113086633</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>-1</v>
+        <v>6.895176886913366</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>-21.00683871535004</v>
+        <v>3.615176886913367</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>-1</v>
+        <v>3.565176886913366</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>-1</v>
+        <v>5.255176886913366</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>-1</v>
+        <v>9.412784433541484</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>3.84</v>
+        <v>0.005176886913366818</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>1.24</v>
+        <v>1.655176886913367</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>-1</v>
+        <v>12.68278443354149</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>-1</v>
+        <v>0.06278443354148422</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>1.38</v>
+        <v>2.265176886913366</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>-1</v>
+        <v>11.24278443354148</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>-1</v>
+        <v>1.315176886913367</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>-13.25176464438136</v>
+        <v>0.3251768869133669</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>2.2</v>
+        <v>-2.284823113086634</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>3.95</v>
+        <v>6.352784433541484</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>3.84</v>
+        <v>9.302784433541483</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>-1</v>
+        <v>2.245176886913367</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>-1</v>
+        <v>8.065176886913369</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>3.84</v>
+        <v>0.1151768869133671</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>1.38</v>
+        <v>-0.9348231130866334</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>-1</v>
+        <v>14.72278443354148</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>-1</v>
+        <v>4.542784433541484</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>3.84</v>
+        <v>6.075176886913368</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>46.11614096244715</v>
+        <v>-6.684823113086634</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>-1</v>
+        <v>3.735176886913366</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>2.01</v>
+        <v>12.70278443354148</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>2.2</v>
+        <v>8.902784433541484</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>-1</v>
+        <v>7.972784433541484</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>1.24</v>
+        <v>2.695176886913367</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>-1</v>
+        <v>8.105176886913368</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>2.2</v>
+        <v>2.865176886913367</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>2.37</v>
+        <v>2.485176886913367</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>-1</v>
+        <v>4.452784433541485</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>2.2</v>
+        <v>2.895176886913366</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>3.84</v>
+        <v>3.332784433541484</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>142.0062297157662</v>
+        <v>2.655176886913366</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>2.2</v>
+        <v>1.225176886913367</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>1.38</v>
+        <v>10.08278443354148</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>2.1</v>
+        <v>8.975176886913367</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>-1</v>
+        <v>3.305176886913367</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>2.01</v>
+        <v>-3.317215566458515</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>-1</v>
+        <v>2.675176886913367</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>-1</v>
+        <v>7.485176886913368</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>3.95</v>
+        <v>8.642784433541484</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>2.64</v>
+        <v>4.602784433541484</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>1.24</v>
+        <v>-3.944823113086634</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>2.37</v>
+        <v>9.962784433541483</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>-1</v>
+        <v>0.4951768869133659</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>2.1</v>
+        <v>0.9627844335414846</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>142.0062297157662</v>
+        <v>9.402784433541484</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>142.0062297157662</v>
+        <v>14.66278443354148</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>142.0062297157662</v>
+        <v>6.412784433541484</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>3.84</v>
+        <v>-1.874823113086633</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>3.84</v>
+        <v>4.622784433541484</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>-1</v>
+        <v>-2.514823113086633</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>2.61</v>
+        <v>15.77278443354149</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>-1</v>
+        <v>2.512784433541484</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>-13.25176464438136</v>
+        <v>3.862784433541484</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>2.01</v>
+        <v>3.485176886913366</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>-1</v>
+        <v>12.89278443354148</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>-13.25176464438136</v>
+        <v>1.255176886913367</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>-1</v>
+        <v>1.555176886913366</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>2.64</v>
+        <v>12.51278443354148</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>1.38</v>
+        <v>0.4851768869133666</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>1.24</v>
+        <v>-0.6948231130866329</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>3.34</v>
+        <v>12.74278443354148</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>2.01</v>
+        <v>9.962784433541485</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>-1</v>
+        <v>12.29278443354148</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>-21.00683871535004</v>
+        <v>5.372784433541484</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>-13.25176464438136</v>
+        <v>10.13278443354148</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>2.61</v>
+        <v>-0.8472155664585159</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>-1</v>
+        <v>-4.064823113086633</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>-1</v>
+        <v>5.442784433541484</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>-1</v>
+        <v>8.045176886913369</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>-21.00683871535004</v>
+        <v>3.365176886913366</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>-1</v>
+        <v>0.1851768869133672</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>3.34</v>
+        <v>5.672784433541484</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>1.38</v>
+        <v>-3.344823113086633</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>3.95</v>
+        <v>2.755176886913366</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>-1</v>
+        <v>3.372784433541484</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>-1</v>
+        <v>-0.5748231130866333</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>3.84</v>
+        <v>-3.217215566458517</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>-1</v>
+        <v>0.3151768869133666</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>-1</v>
+        <v>-5.344823113086633</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>-1</v>
+        <v>10.06517688691337</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>-1</v>
+        <v>1.382784433541485</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>2.01</v>
+        <v>6.102784433541484</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>-13.25176464438136</v>
+        <v>-3.994823113086634</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>142.0062297157662</v>
+        <v>4.585176886913367</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>3.09</v>
+        <v>-0.1472155664585149</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>2.37</v>
+        <v>-6.904823113086633</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>2.61</v>
+        <v>-6.544823113086633</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>1.38</v>
+        <v>12.41278443354148</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>-21.00683871535004</v>
+        <v>1.045176886913366</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>1.38</v>
+        <v>-0.4648231130866336</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>2.2</v>
+        <v>0.445176886913367</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>-1</v>
+        <v>4.172784433541484</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>-1</v>
+        <v>3.942784433541484</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>3.34</v>
+        <v>11.55278443354148</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>-1</v>
+        <v>7.442784433541484</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>3.09</v>
+        <v>1.125176886913367</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>1.24</v>
+        <v>7.472784433541484</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>1.38</v>
+        <v>7.905176886913366</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>1.24</v>
+        <v>12.28278443354148</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>2.1</v>
+        <v>3.572784433541484</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>2.64</v>
+        <v>9.672784433541484</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>2.37</v>
+        <v>0.205176886913367</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>-1</v>
+        <v>15.43278443354149</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>-1</v>
+        <v>19.86278443354148</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>2.01</v>
+        <v>7.502784433541485</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>1.24</v>
+        <v>9.392784433541484</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>2.61</v>
+        <v>7.302784433541484</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>-1</v>
+        <v>10.04278443354148</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>3.09</v>
+        <v>9.402784433541484</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>1.24</v>
+        <v>-1.317215566458516</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>-1</v>
+        <v>0.5451768869133666</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>-1</v>
+        <v>-5.354823113086633</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>-13.25176464438136</v>
+        <v>3.575176886913368</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>2.2</v>
+        <v>1.392784433541484</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>-1</v>
+        <v>7.565176886913366</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>-1</v>
+        <v>-1.007215566458516</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>-1</v>
+        <v>1.142784433541484</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>2.1</v>
+        <v>11.82278443354149</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>2.61</v>
+        <v>-12.21482311308663</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>3.95</v>
+        <v>7.502784433541484</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>-21.00683871535004</v>
+        <v>4.372784433541484</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>-1</v>
+        <v>0.09278443354148447</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>-1</v>
+        <v>3.555176886913366</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>-13.25176464438136</v>
+        <v>5.905176886913368</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>3.84</v>
+        <v>7.505176886913365</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>-1</v>
+        <v>7.835176886913367</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>3.84</v>
+        <v>6.672784433541485</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>142.0062297157662</v>
+        <v>11.27278443354149</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>2.1</v>
+        <v>3.725176886913366</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>-1</v>
+        <v>7.372784433541485</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>-1</v>
+        <v>4.992784433541484</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>1.24</v>
+        <v>3.522784433541485</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>-1</v>
+        <v>8.405176886913369</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>-1</v>
+        <v>7.782784433541484</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>-1</v>
+        <v>14.12278443354148</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>1.38</v>
+        <v>12.06278443354148</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>3.84</v>
+        <v>4.935176886913367</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>-1</v>
+        <v>3.125176886913366</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>1.24</v>
+        <v>-0.5848231130866333</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>2.64</v>
+        <v>-0.5248231130866332</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>2.64</v>
+        <v>7.382784433541485</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>2.1</v>
+        <v>-0.3548231130866333</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>-1</v>
+        <v>2.242784433541484</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>-1</v>
+        <v>12.35278443354149</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>142.0062297157662</v>
+        <v>12.25278443354148</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>-1</v>
+        <v>9.312784433541484</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>3.09</v>
+        <v>6.135176886913366</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>2.37</v>
+        <v>4.322784433541484</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>46.11614096244715</v>
+        <v>17.40278443354148</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>2.2</v>
+        <v>2.972784433541484</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>-1</v>
+        <v>9.522784433541483</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>3.84</v>
+        <v>12.39278443354148</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>-1</v>
+        <v>6.682784433541484</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>-21.00683871535004</v>
+        <v>3.445176886913367</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>2.1</v>
+        <v>-1.017215566458516</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>46.11614096244715</v>
+        <v>7.152784433541484</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>-1</v>
+        <v>16.65278443354148</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>2.1</v>
+        <v>10.42517688691337</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>2.64</v>
+        <v>3.152784433541485</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>1.24</v>
+        <v>3.755176886913367</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>-1</v>
+        <v>9.772784433541485</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>-1</v>
+        <v>-0.484823113086633</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>2.01</v>
+        <v>5.685176886913367</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>2.37</v>
+        <v>1.185176886913367</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>3.34</v>
+        <v>5.665176886913366</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>46.11614096244715</v>
+        <v>6.432784433541484</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>-1</v>
+        <v>3.095176886913367</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>3.95</v>
+        <v>-2.164823113086634</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>-1</v>
+        <v>3.425176886913367</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>-1</v>
+        <v>6.762784433541484</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>-1</v>
+        <v>0.5651768869133671</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>2.01</v>
+        <v>12.12278443354148</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>-1</v>
+        <v>12.12278443354148</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>-1</v>
+        <v>3.475176886913367</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>-21.00683871535004</v>
+        <v>7.392784433541484</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>-1</v>
+        <v>2.785176886913367</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>-1</v>
+        <v>-0.927215566458516</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>-1</v>
+        <v>7.752784433541485</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>-1</v>
+        <v>4.342784433541485</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>1.24</v>
+        <v>9.072784433541484</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>2.01</v>
+        <v>3.555176886913366</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>2.61</v>
+        <v>3.475176886913366</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>2.37</v>
+        <v>11.23278443354148</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>-13.25176464438136</v>
+        <v>8.555176886913367</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>-1</v>
+        <v>5.685176886913367</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>-1</v>
+        <v>-0.6272155664585162</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>2.2</v>
+        <v>6.832784433541485</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>-1</v>
+        <v>-2.627215566458516</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>3.09</v>
+        <v>7.742784433541484</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>2.61</v>
+        <v>-2.364823113086634</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>2.64</v>
+        <v>6.212784433541485</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>-1</v>
+        <v>-2.014823113086633</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>1.38</v>
+        <v>6.402784433541484</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>3.84</v>
+        <v>15.15278443354149</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>46.11614096244715</v>
+        <v>5.622784433541485</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>-1</v>
+        <v>1.225176886913366</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>46.11614096244715</v>
+        <v>6.712784433541485</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>2.61</v>
+        <v>7.482784433541484</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>1.24</v>
+        <v>-0.1248231130866333</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>3.34</v>
+        <v>4.705176886913367</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>-1</v>
+        <v>10.50278443354149</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>-1</v>
+        <v>8.405176886913369</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>-1</v>
+        <v>-1.524823113086633</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>-1</v>
+        <v>10.06278443354148</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>1.24</v>
+        <v>14.69278443354149</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>-13.25176464438136</v>
+        <v>-2.874823113086634</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>-1</v>
+        <v>5.725176886913366</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>2.1</v>
+        <v>11.71278443354148</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>-1</v>
+        <v>12.51278443354149</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>-1</v>
+        <v>1.552784433541484</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>2.61</v>
+        <v>4.882784433541485</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>-1</v>
+        <v>3.725176886913366</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>2.61</v>
+        <v>7.082784433541484</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>-1</v>
+        <v>-3.394823113086633</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>2.1</v>
+        <v>4.522784433541484</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>3.84</v>
+        <v>8.015176886913366</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>-1</v>
+        <v>0.3751768869133665</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>-1</v>
+        <v>9.282784433541483</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>-1</v>
+        <v>13.14278443354148</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>-1</v>
+        <v>1.375176886913367</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>-21.00683871535004</v>
+        <v>8.185176886913366</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>-1</v>
+        <v>4.292784433541485</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>1.38</v>
+        <v>9.232784433541484</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>-1</v>
+        <v>11.42278443354148</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>2.01</v>
+        <v>3.825176886913368</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>-21.00683871535004</v>
+        <v>16.19278443354148</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>-1</v>
+        <v>2.442784433541484</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>-1</v>
+        <v>-2.774823113086633</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>2.2</v>
+        <v>5.935176886913365</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>-1</v>
+        <v>4.695176886913367</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>-1</v>
+        <v>1.085176886913367</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>2.61</v>
+        <v>6.835176886913367</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>-21.00683871535004</v>
+        <v>7.702784433541485</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>-1</v>
+        <v>-0.344823113086633</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>-1</v>
+        <v>-2.424823113086633</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>-1</v>
+        <v>3.825176886913366</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>2.01</v>
+        <v>-1.277215566458516</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>-1</v>
+        <v>14.42278443354148</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>-1</v>
+        <v>8.772784433541485</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>2.61</v>
+        <v>6.522784433541484</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>-1</v>
+        <v>5.842784433541484</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>2.64</v>
+        <v>3.702784433541484</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>2.1</v>
+        <v>-3.457215566458515</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>-1</v>
+        <v>-3.087215566458516</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>3.84</v>
+        <v>9.142784433541484</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>-1</v>
+        <v>10.00278443354149</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>46.11614096244715</v>
+        <v>14.47278443354148</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>-1</v>
+        <v>0.1851768869133672</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>1.24</v>
+        <v>-4.654823113086634</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>-1</v>
+        <v>5.395176886913366</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>-13.25176464438136</v>
+        <v>9.392784433541484</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>2.01</v>
+        <v>-2.664823113086634</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>1.38</v>
+        <v>8.005176886913368</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>1.24</v>
+        <v>5.845176886913367</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>-1</v>
+        <v>6.845176886913367</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>-1</v>
+        <v>5.045176886913366</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>2.1</v>
+        <v>4.165176886913366</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>-1</v>
+        <v>-0.8772155664585153</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>-1</v>
+        <v>4.482784433541484</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>1.24</v>
+        <v>14.96278443354148</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>-1</v>
+        <v>12.36278443354148</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>-1</v>
+        <v>1.085176886913367</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>46.11614096244715</v>
+        <v>3.585176886913367</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>-1</v>
+        <v>3.105176886913367</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>-1</v>
+        <v>12.24278443354148</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>-21.00683871535004</v>
+        <v>0.9251768869133665</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>-1</v>
+        <v>-1.684823113086633</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>2.1</v>
+        <v>-0.2872155664585154</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>46.11614096244715</v>
+        <v>5.672784433541484</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>-1</v>
+        <v>3.652784433541484</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>2.1</v>
+        <v>14.42278443354148</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>-1</v>
+        <v>-2.054823113086633</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>2.64</v>
+        <v>2.615176886913367</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>-1</v>
+        <v>4.592784433541484</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>-1</v>
+        <v>4.715176886913366</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>-1</v>
+        <v>1.492784433541484</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>2.01</v>
+        <v>7.875176886913366</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>-1</v>
+        <v>13.06278443354148</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>-1</v>
+        <v>8.812784433541484</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>142.0062297157662</v>
+        <v>-1.874823113086633</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>-1</v>
+        <v>0.1951768869133661</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>-1</v>
+        <v>8.745176886913368</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>2.01</v>
+        <v>6.515176886913367</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>-1</v>
+        <v>0.9151768869133667</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>46.11614096244715</v>
+        <v>3.692784433541484</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>2.01</v>
+        <v>15.57278443354148</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>-1</v>
+        <v>4.365176886913367</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="n">
-        <v>2.61</v>
+        <v>14.22278443354149</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>46.11614096244715</v>
+        <v>5.115176886913367</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>-1</v>
+        <v>1.955176886913367</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>2.1</v>
+        <v>2.795176886913366</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>2.64</v>
+        <v>7.852784433541484</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>-13.25176464438136</v>
+        <v>13.62517688691337</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>-1</v>
+        <v>22.13278443354149</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>-1</v>
+        <v>-1.107215566458516</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>1.24</v>
+        <v>12.18278443354148</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>-1</v>
+        <v>0.8151768869133666</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>-21.00683871535004</v>
+        <v>0.6051768869133667</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="n">
-        <v>3.34</v>
+        <v>-1.744823113086633</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>2.2</v>
+        <v>5.255176886913365</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="n">
-        <v>46.11614096244715</v>
+        <v>3.432784433541485</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>2.1</v>
+        <v>8.085176886913368</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>3.95</v>
+        <v>11.49278443354148</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>2.64</v>
+        <v>14.87278443354148</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="n">
-        <v>-1</v>
+        <v>2.422784433541485</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>-1</v>
+        <v>9.452784433541485</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>2.01</v>
+        <v>1.605176886913367</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>1.24</v>
+        <v>-1.654823113086633</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>-1</v>
+        <v>-0.217215566458516</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>-1</v>
+        <v>-2.654823113086634</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>3.84</v>
+        <v>4.405176886913366</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>2.01</v>
+        <v>9.132784433541485</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="n">
-        <v>-1</v>
+        <v>-0.1172155664585155</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>3.95</v>
+        <v>17.27278443354149</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="n">
-        <v>2.2</v>
+        <v>4.862784433541485</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>3.09</v>
+        <v>8.372784433541485</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="n">
-        <v>-1</v>
+        <v>4.272784433541485</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>-1</v>
+        <v>4.502784433541485</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>-1</v>
+        <v>5.035176886913367</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="n">
-        <v>-1</v>
+        <v>5.172784433541485</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="n">
-        <v>-1</v>
+        <v>-7.614823113086634</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>3.95</v>
+        <v>11.40278443354148</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="n">
-        <v>1.24</v>
+        <v>4.332784433541484</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>-1</v>
+        <v>3.572784433541484</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="n">
-        <v>-1</v>
+        <v>10.50278443354148</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="n">
-        <v>2.64</v>
+        <v>5.655176886913366</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>-1</v>
+        <v>13.37278443354148</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>-1</v>
+        <v>0.6051768869133662</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="n">
-        <v>1.38</v>
+        <v>5.332784433541484</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="n">
-        <v>1.24</v>
+        <v>4.632784433541485</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="n">
-        <v>-1</v>
+        <v>-2.004823113086633</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="n">
-        <v>1.24</v>
+        <v>-4.124823113086634</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>-21.00683871535004</v>
+        <v>3.025176886913367</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="n">
-        <v>2.1</v>
+        <v>-1.084823113086633</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="n">
-        <v>2.2</v>
+        <v>7.465176886913366</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>2.01</v>
+        <v>-4.824823113086634</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>2.37</v>
+        <v>3.385176886913366</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="n">
-        <v>-1</v>
+        <v>2.145176886913367</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>-1</v>
+        <v>3.335176886913366</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>-1</v>
+        <v>7.852784433541484</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>-13.25176464438136</v>
+        <v>3.145176886913366</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>3.09</v>
+        <v>6.935176886913367</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>2.01</v>
+        <v>1.725176886913367</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>-1</v>
+        <v>3.575176886913368</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>3.34</v>
+        <v>7.362784433541484</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>-1</v>
+        <v>9.992784433541484</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="n">
-        <v>3.95</v>
+        <v>5.752784433541484</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>-1</v>
+        <v>11.15278443354148</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>-1</v>
+        <v>0.06278443354148422</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="n">
-        <v>46.11614096244715</v>
+        <v>16.99278443354149</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>-1</v>
+        <v>7.912784433541484</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>-21.00683871535004</v>
+        <v>2.472784433541484</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>3.34</v>
+        <v>10.42517688691337</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>-1</v>
+        <v>14.50278443354149</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>1.38</v>
+        <v>5.965176886913366</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>-1</v>
+        <v>6.045176886913366</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>-1</v>
+        <v>1.682784433541484</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>2.2</v>
+        <v>-0.7148231130866329</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>3.95</v>
+        <v>4.515176886913365</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>2.1</v>
+        <v>5.815176886913366</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>2.37</v>
+        <v>7.512784433541485</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>1.24</v>
+        <v>12.30278443354148</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>1.38</v>
+        <v>9.552784433541484</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>1.24</v>
+        <v>0.06517688691336687</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>1.24</v>
+        <v>4.052784433541484</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>3.95</v>
+        <v>5.462784433541485</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>142.0062297157662</v>
+        <v>0.8251768869133669</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>-1</v>
+        <v>10.67278443354148</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>2.61</v>
+        <v>15.02278443354149</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>-1</v>
+        <v>10.08278443354148</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>2.2</v>
+        <v>-1.854823113086634</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>-1</v>
+        <v>3.672784433541484</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>2.64</v>
+        <v>3.432784433541485</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>-1</v>
+        <v>11.97278443354148</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>-1</v>
+        <v>-1.934823113086634</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>-1</v>
+        <v>4.885176886913367</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>-1</v>
+        <v>4.892784433541484</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>-1</v>
+        <v>7.522784433541484</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>-1</v>
+        <v>4.632784433541485</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>-1</v>
+        <v>10.84517688691337</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>1.24</v>
+        <v>6.305176886913368</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>-1</v>
+        <v>6.922784433541484</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>2.1</v>
+        <v>5.435176886913367</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>-1</v>
+        <v>3.735176886913366</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="n">
-        <v>2.37</v>
+        <v>11.32517688691337</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="n">
-        <v>46.11614096244715</v>
+        <v>-7.434823113086634</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="n">
-        <v>-1</v>
+        <v>8.305176886913369</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="n">
-        <v>-1</v>
+        <v>3.575176886913366</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="n">
-        <v>1.38</v>
+        <v>1.492784433541484</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="n">
-        <v>46.11614096244715</v>
+        <v>9.192784433541485</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="n">
-        <v>2.37</v>
+        <v>2.465176886913367</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="n">
-        <v>-13.25176464438136</v>
+        <v>8.172784433541484</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="n">
-        <v>-21.00683871535004</v>
+        <v>1.105176886913366</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="n">
-        <v>2.37</v>
+        <v>17.98278443354149</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="n">
-        <v>-1</v>
+        <v>12.29278443354148</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="n">
-        <v>3.95</v>
+        <v>2.925176886913367</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="n">
-        <v>1.38</v>
+        <v>7.842784433541484</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="n">
-        <v>-1</v>
+        <v>7.522784433541485</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>2.37</v>
+        <v>5.935176886913367</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="n">
-        <v>-1</v>
+        <v>-2.964823113086633</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="n">
-        <v>3.34</v>
+        <v>9.802784433541484</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>2.37</v>
+        <v>0.435176886913367</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="n">
-        <v>3.84</v>
+        <v>11.75278443354149</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="n">
-        <v>-1</v>
+        <v>4.712784433541485</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="n">
-        <v>1.24</v>
+        <v>10.17278443354148</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="n">
-        <v>-1</v>
+        <v>7.732784433541484</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="n">
-        <v>2.01</v>
+        <v>11.82278443354148</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="n">
-        <v>3.84</v>
+        <v>5.422784433541485</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="n">
-        <v>2.61</v>
+        <v>9.132784433541485</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="n">
-        <v>2.61</v>
+        <v>5.535176886913367</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="n">
-        <v>-1</v>
+        <v>6.702784433541484</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>2.64</v>
+        <v>10.12278443354148</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="n">
-        <v>-1</v>
+        <v>0.4551768869133668</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="n">
-        <v>-13.25176464438136</v>
+        <v>8.452784433541485</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="n">
-        <v>-1</v>
+        <v>0.905176886913367</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>-1</v>
+        <v>-1.384823113086633</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="n">
-        <v>-1</v>
+        <v>10.05278443354148</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="n">
-        <v>1.38</v>
+        <v>-2.224823113086633</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="n">
-        <v>-1</v>
+        <v>8.865176886913368</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>46.11614096244715</v>
+        <v>1.412784433541484</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="n">
-        <v>-1</v>
+        <v>9.082784433541484</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="n">
-        <v>-21.00683871535004</v>
+        <v>11.61278443354148</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="n">
-        <v>-1</v>
+        <v>5.345176886913367</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="n">
-        <v>-1</v>
+        <v>-2.704823113086634</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="n">
-        <v>-1</v>
+        <v>0.9151768869133667</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="n">
-        <v>2.37</v>
+        <v>7.552784433541484</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="n">
-        <v>2.01</v>
+        <v>4.192784433541484</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="n">
-        <v>-1</v>
+        <v>12.81278443354148</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="n">
-        <v>-1</v>
+        <v>14.71278443354148</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="n">
-        <v>142.0062297157662</v>
+        <v>7.465176886913366</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>-1</v>
+        <v>5.972784433541484</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="n">
-        <v>-1</v>
+        <v>6.095176886913369</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="n">
-        <v>-1</v>
+        <v>0.2651768869133664</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="n">
-        <v>-1</v>
+        <v>0.695176886913367</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="n">
-        <v>-13.25176464438136</v>
+        <v>13.06278443354148</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="n">
-        <v>2.01</v>
+        <v>15.78278443354148</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="n">
-        <v>142.0062297157662</v>
+        <v>-6.764823113086634</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="n">
-        <v>3.95</v>
+        <v>6.835176886913367</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="n">
-        <v>2.61</v>
+        <v>9.912784433541484</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="n">
-        <v>46.11614096244715</v>
+        <v>2.242784433541484</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="n">
-        <v>2.61</v>
+        <v>7.882784433541485</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="n">
-        <v>1.38</v>
+        <v>8.835176886913366</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="n">
-        <v>-1</v>
+        <v>9.842784433541485</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="n">
-        <v>2.01</v>
+        <v>6.935176886913367</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="n">
-        <v>142.0062297157662</v>
+        <v>8.975176886913369</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="n">
-        <v>-1</v>
+        <v>6.502784433541485</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="n">
-        <v>1.38</v>
+        <v>5.232784433541484</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="n">
-        <v>2.61</v>
+        <v>6.755176886913365</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="n">
-        <v>46.11614096244715</v>
+        <v>-3.414823113086634</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="n">
-        <v>-1</v>
+        <v>4.662784433541484</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="n">
-        <v>1.38</v>
+        <v>3.225176886913366</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="n">
-        <v>2.61</v>
+        <v>-8.244823113086634</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="n">
-        <v>2.1</v>
+        <v>1.355176886913366</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="n">
-        <v>2.64</v>
+        <v>2.882784433541484</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="n">
-        <v>-1</v>
+        <v>-4.494823113086634</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="n">
-        <v>-21.00683871535004</v>
+        <v>0.8151768869133662</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="n">
-        <v>-1</v>
+        <v>7.182784433541484</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="n">
-        <v>-1</v>
+        <v>17.49278443354149</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="n">
-        <v>2.64</v>
+        <v>17.67278443354148</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="n">
-        <v>-1</v>
+        <v>4.365176886913367</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="n">
-        <v>3.09</v>
+        <v>12.28278443354148</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="n">
-        <v>-21.00683871535004</v>
+        <v>-2.124823113086633</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="n">
-        <v>3.34</v>
+        <v>4.652784433541484</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="n">
-        <v>46.11614096244715</v>
+        <v>1.235176886913367</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="n">
-        <v>-1</v>
+        <v>6.065176886913366</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="n">
-        <v>-1</v>
+        <v>7.772784433541484</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="n">
-        <v>-1</v>
+        <v>3.375176886913366</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="n">
-        <v>-1</v>
+        <v>0.9251768869133665</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="n">
-        <v>-1</v>
+        <v>5.492784433541484</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="n">
-        <v>1.24</v>
+        <v>11.21278443354148</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="n">
-        <v>2.2</v>
+        <v>-4.444823113086634</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="n">
-        <v>2.61</v>
+        <v>1.642784433541484</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="n">
-        <v>-1</v>
+        <v>6.852784433541485</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="n">
-        <v>-1</v>
+        <v>4.405176886913366</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="n">
-        <v>-1</v>
+        <v>8.115176886913368</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="n">
-        <v>142.0062297157662</v>
+        <v>-1.694823113086633</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="n">
-        <v>2.37</v>
+        <v>5.375176886913366</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="n">
-        <v>-1</v>
+        <v>10.04278443354148</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="n">
-        <v>2.61</v>
+        <v>-1.514823113086633</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="n">
-        <v>-1</v>
+        <v>16.74278443354148</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="n">
-        <v>-1</v>
+        <v>8.895176886913369</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="n">
-        <v>-1</v>
+        <v>12.44278443354149</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="n">
-        <v>2.61</v>
+        <v>8.462784433541485</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="n">
-        <v>3.95</v>
+        <v>-1.504823113086634</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="n">
-        <v>3.95</v>
+        <v>10.84278443354149</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="n">
-        <v>-13.25176464438136</v>
+        <v>7.692784433541485</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="n">
-        <v>2.2</v>
+        <v>6.792784433541484</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="n">
-        <v>142.0062297157662</v>
+        <v>5.475176886913366</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="n">
-        <v>-1</v>
+        <v>4.465176886913366</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="n">
-        <v>46.11614096244715</v>
+        <v>2.132784433541484</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="n">
-        <v>-1</v>
+        <v>6.382784433541485</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="n">
-        <v>-1</v>
+        <v>5.992784433541484</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="n">
-        <v>-1</v>
+        <v>7.912784433541484</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="n">
-        <v>142.0062297157662</v>
+        <v>-4.804823113086633</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="n">
-        <v>-1</v>
+        <v>8.812784433541484</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="n">
-        <v>1.24</v>
+        <v>2.855176886913365</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" t="n">
-        <v>-1</v>
+        <v>8.425176886913366</v>
       </c>
     </row>
   </sheetData>
@@ -7259,19 +7423,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.75456784195275</v>
+        <v>5.140379988520104</v>
       </c>
       <c r="B2" t="n">
-        <v>1.24</v>
+        <v>5.243980660227425</v>
       </c>
       <c r="C2" t="n">
-        <v>142.0062297157662</v>
+        <v>22.13278443354149</v>
       </c>
       <c r="D2" t="n">
-        <v>-21.00683871535004</v>
+        <v>-12.21482311308663</v>
       </c>
       <c r="E2" t="n">
-        <v>0.52</v>
+        <v>0.449</v>
       </c>
     </row>
   </sheetData>
